--- a/DRAFT-TABLES_FIGURES_4-17-2021/_Main Table 3 Top 10 prioritized-CpGs_and_DMRs-crossTissue_brain_blood.xlsx
+++ b/DRAFT-TABLES_FIGURES_4-17-2021/_Main Table 3 Top 10 prioritized-CpGs_and_DMRs-crossTissue_brain_blood.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxw391\TBL Dropbox\Lily Wang\AD-meta-analysis-blood-samples\DRAFT-TABLES_FIGURES_4-17-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B648B5F-8BB5-4F3F-A832-714CF333B28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0FFAB3-642A-4C56-A18B-C46767B5891E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cpgs &amp; dmrs" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="86">
   <si>
     <t>chr</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>----</t>
-  </si>
-  <si>
-    <t>GREAT_annotation</t>
   </si>
   <si>
     <t>chr15:39871808-39872186</t>
@@ -300,12 +297,57 @@
   <si>
     <t>FKBPL (-11734);PRRT1 (+9928)</t>
   </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Tissue</t>
+  </si>
+  <si>
+    <t>IsEnhancer</t>
+  </si>
+  <si>
+    <t>H9-Roadmap;H7;iPS_DF_19.11_Cell_Line-Roadmap;CD14-positive_monocyte_treated_with_LPS_d6-Novakovic2016</t>
+  </si>
+  <si>
+    <t>OCI-LY7-ENCODE;H1_Derived_Neuronal_Progenitor_Cultured_Cells-Roadmap</t>
+  </si>
+  <si>
+    <t>astrocyte-ENCODE;H7;U937-Engreitz</t>
+  </si>
+  <si>
+    <t>SK-N-SH-ENCODE;CD34-positive_mobilized-Roadmap;B_cell-ENCODE;Karpas-422-ENCODE;U937_LPS_4hr-Engreitz</t>
+  </si>
+  <si>
+    <t>CD14-positive_monocyte_treated_with_BG_d1-Novakovic2016;CD14-positive_monocyte-Novakovic2016;CD14-positive_monocyte_treated_with_RPMI_4h-Novakovic2016;CD8-positive_alpha-beta_T_cell-ENCODE</t>
+  </si>
+  <si>
+    <t>T-cell-ENCODE;H1_Derived_Neuronal_Progenitor_Cultured_Cells-Roadmap;K562-Roadmap;H9-Roadmap;H7;iPS_DF_19.11_Cell_Line-Roadmap;induced_pluripotent_stem_cell-ENCODE;H1-hESC-Roadmap;SK-N-SH-ENCODE</t>
+  </si>
+  <si>
+    <t>natural_killer_cell-Corces2016;erythroblast-Corces2016;megakaryocyte-erythroid_progenitor-Corces2016;dendritic_cell_treated_with_Lipopolysaccharide_100_ng-mL_for_6_hour-Garber2017</t>
+  </si>
+  <si>
+    <t>K562-Roadmap;MM.1S-ENCODE;OCI-LY7-ENCODE;endothelial_cell_of_umbilical_vein-Roadmap;CD14-positive_monocyte_treated_with_RPMI_d6-Novakovic2016;erythroblast-Corces2016;SK-N-SH-ENCODE;THP-1_macrophage-VanBortle2017;THP_pmaLPS_ATAC_72h;CD56-positive_natural_killer_cells-Roadmap;THP_pmaLPS_ATAC_2h;CD4-positive_helper_T_cell-ENCODE;H1-hESC-Roadmap;CD8-positive_alpha-beta_T_cell-ENCODE;THP_pmaLPS_ATAC_0h;THP_pmaLPS_ATAC_24h;THP1-Engreitz</t>
+  </si>
+  <si>
+    <t>erythroblast-Corces2016</t>
+  </si>
+  <si>
+    <t>Annotations</t>
+  </si>
+  <si>
+    <t>GREAT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,6 +377,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDEDEDE"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -480,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -541,7 +602,6 @@
     <xf numFmtId="11" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -571,24 +631,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -619,6 +661,44 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -958,16 +1038,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Q75"/>
+  <dimension ref="B1:T75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="6" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.109375" style="6" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="6" customWidth="1"/>
@@ -982,43 +1062,49 @@
     <col min="14" max="14" width="10.33203125" style="6" customWidth="1"/>
     <col min="15" max="15" width="10.109375" style="6" customWidth="1"/>
     <col min="16" max="16" width="9.109375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="41.109375" customWidth="1"/>
+    <col min="17" max="17" width="28.5546875" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="255.77734375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:19">
       <c r="B1" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19">
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="38" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" s="34"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="30"/>
-    </row>
-    <row r="4" spans="2:17" s="4" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="R3" s="54"/>
+      <c r="S3" s="29"/>
+    </row>
+    <row r="4" spans="2:19" s="4" customFormat="1" ht="13.8">
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>0</v>
@@ -1027,46 +1113,52 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>40</v>
+      <c r="H4" s="25" t="s">
+        <v>39</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="P4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="S4" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" s="5" customFormat="1" ht="13.8">
       <c r="B5" s="16" t="s">
         <v>12</v>
       </c>
@@ -1082,13 +1174,13 @@
       <c r="F5" s="10">
         <v>5.4445622323747009E-4</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="23">
         <v>2.4795400663207932E-10</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="26">
         <v>9.0428714370769918E-5</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="31">
         <v>0.236653469230314</v>
       </c>
       <c r="J5" s="10">
@@ -1103,20 +1195,26 @@
       <c r="M5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="32">
+      <c r="N5" s="31">
         <v>1.9473866422742979E-2</v>
       </c>
       <c r="O5" s="10">
         <v>1.070045372974129E-2</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="Q5" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="S5" s="48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" s="5" customFormat="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
@@ -1132,13 +1230,13 @@
       <c r="F6" s="10">
         <v>3.6757811591902681E-2</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="23">
         <v>4.9352166178178925E-10</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="26">
         <v>9.0428714370769918E-5</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="31">
         <v>0.221410550288966</v>
       </c>
       <c r="J6" s="10">
@@ -1153,20 +1251,24 @@
       <c r="M6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="32">
+      <c r="N6" s="31">
         <v>0.28008845472930172</v>
       </c>
       <c r="O6" s="10">
         <v>4.7449634147163362E-2</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="P6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="Q6" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="S6" s="45"/>
+    </row>
+    <row r="7" spans="2:19" s="5" customFormat="1">
       <c r="B7" s="16" t="s">
         <v>9</v>
       </c>
@@ -1182,13 +1284,13 @@
       <c r="F7" s="10">
         <v>1.594923583000029E-2</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="23">
         <v>9.0085178249010741E-10</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="26">
         <v>1.100429489222241E-4</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="31">
         <v>0.16110254317811301</v>
       </c>
       <c r="J7" s="10">
@@ -1203,25 +1305,29 @@
       <c r="M7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="32">
+      <c r="N7" s="31">
         <v>0.14998583017233849</v>
       </c>
       <c r="O7" s="10">
         <v>4.3837218753517641E-2</v>
       </c>
-      <c r="P7" s="15" t="s">
+      <c r="P7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Q7" s="17" t="s">
+      <c r="Q7" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="S7" s="45"/>
+    </row>
+    <row r="8" spans="2:19" s="5" customFormat="1">
+      <c r="B8" s="16" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" spans="2:17" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
+      <c r="C8" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="D8" s="15">
         <v>224620806</v>
@@ -1232,13 +1338,13 @@
       <c r="F8" s="10">
         <v>6.8230170886012084E-4</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="23">
         <v>2.590235968876412E-9</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="26">
         <v>1.408268716804079E-4</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="31">
         <v>8.3177121786907698E-2</v>
       </c>
       <c r="J8" s="10">
@@ -1253,20 +1359,26 @@
       <c r="M8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="32">
+      <c r="N8" s="31">
         <v>0.1098977234288142</v>
       </c>
       <c r="O8" s="10">
         <v>5.4577418648972325E-4</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="P8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Q8" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="Q8" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="S8" s="45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" s="5" customFormat="1">
       <c r="B9" s="16" t="s">
         <v>10</v>
       </c>
@@ -1282,13 +1394,13 @@
       <c r="F9" s="10">
         <v>7.5739523140490204E-3</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="23">
         <v>7.0108913601519132E-9</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="26">
         <v>2.5692322805153511E-4</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="31">
         <v>0.108546330725507</v>
       </c>
       <c r="J9" s="10">
@@ -1303,22 +1415,26 @@
       <c r="M9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="32">
+      <c r="N9" s="31">
         <v>0.1960845772338447</v>
       </c>
       <c r="O9" s="10">
         <v>9.2527276130408582E-3</v>
       </c>
-      <c r="P9" s="15" t="s">
+      <c r="P9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Q9" s="17" t="s">
+      <c r="Q9" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="R9" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="S9" s="45"/>
+    </row>
+    <row r="10" spans="2:19" s="5" customFormat="1">
+      <c r="B10" s="16" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
-        <v>62</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>7</v>
@@ -1332,13 +1448,13 @@
       <c r="F10" s="10">
         <v>6.578026426109604E-3</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="23">
         <v>1.46439487545783E-8</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="26">
         <v>4.878604902226388E-4</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="31">
         <v>0.41580176542138098</v>
       </c>
       <c r="J10" s="10">
@@ -1353,70 +1469,78 @@
       <c r="M10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="32">
+      <c r="N10" s="31">
         <v>3.8289891714934993E-2</v>
       </c>
       <c r="O10" s="10">
         <v>7.6570941330802084E-2</v>
       </c>
-      <c r="P10" s="15" t="s">
+      <c r="P10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Q10" s="17" t="s">
+      <c r="Q10" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="R10" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="S10" s="45"/>
+    </row>
+    <row r="11" spans="2:19" s="41" customFormat="1" ht="13.8">
+      <c r="B11" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="35">
+        <v>93153553</v>
+      </c>
+      <c r="E11" s="36">
+        <v>9.7913704171686396E-12</v>
+      </c>
+      <c r="F11" s="36">
+        <v>3.8121233180130297E-2</v>
+      </c>
+      <c r="G11" s="37">
+        <v>2.140974019345739E-8</v>
+      </c>
+      <c r="H11" s="38">
+        <v>6.0352904773192128E-4</v>
+      </c>
+      <c r="I11" s="39">
+        <v>0.130332847458973</v>
+      </c>
+      <c r="J11" s="36">
+        <v>8.4968090633192998E-5</v>
+      </c>
+      <c r="K11" s="36">
+        <v>6.6017750087647101E-3</v>
+      </c>
+      <c r="L11" s="36">
+        <v>3.2497322639728599E-6</v>
+      </c>
+      <c r="M11" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="39">
+        <v>1.5288637054967431E-2</v>
+      </c>
+      <c r="O11" s="36">
+        <v>0.52464425714606133</v>
+      </c>
+      <c r="P11" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="60" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="2:17" s="48" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="42">
-        <v>93153553</v>
-      </c>
-      <c r="E11" s="43">
-        <v>9.7913704171686396E-12</v>
-      </c>
-      <c r="F11" s="43">
-        <v>3.8121233180130297E-2</v>
-      </c>
-      <c r="G11" s="44">
-        <v>2.140974019345739E-8</v>
-      </c>
-      <c r="H11" s="45">
-        <v>6.0352904773192128E-4</v>
-      </c>
-      <c r="I11" s="46">
-        <v>0.130332847458973</v>
-      </c>
-      <c r="J11" s="43">
-        <v>8.4968090633192998E-5</v>
-      </c>
-      <c r="K11" s="43">
-        <v>6.6017750087647101E-3</v>
-      </c>
-      <c r="L11" s="43">
-        <v>3.2497322639728599E-6</v>
-      </c>
-      <c r="M11" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="N11" s="46">
-        <v>1.5288637054967431E-2</v>
-      </c>
-      <c r="O11" s="43">
-        <v>0.52464425714606133</v>
-      </c>
-      <c r="P11" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q11" s="47" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="R11" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="S11" s="40"/>
+    </row>
+    <row r="12" spans="2:19" s="5" customFormat="1">
       <c r="B12" s="16" t="s">
         <v>14</v>
       </c>
@@ -1432,13 +1556,13 @@
       <c r="F12" s="10">
         <v>4.1274366879324599E-2</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="23">
         <v>6.1379191769574737E-8</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="26">
         <v>1.2496223751918699E-3</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I12" s="31">
         <v>0.36417321268075098</v>
       </c>
       <c r="J12" s="10">
@@ -1453,25 +1577,31 @@
       <c r="M12" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="32">
+      <c r="N12" s="31">
         <v>0.43667534827850413</v>
       </c>
       <c r="O12" s="10">
         <v>2.0051538244862589E-2</v>
       </c>
-      <c r="P12" s="15" t="s">
+      <c r="P12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Q12" s="17" t="s">
+      <c r="Q12" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="R12" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="S12" s="46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" s="5" customFormat="1">
+      <c r="B13" s="16" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="2:17" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="16" t="s">
+      <c r="C13" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="D13" s="15">
         <v>46672924</v>
@@ -1482,13 +1612,13 @@
       <c r="F13" s="10">
         <v>4.7153460664653519E-3</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="23">
         <v>7.2347835940845807E-8</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="26">
         <v>1.325640250119509E-3</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="31">
         <v>4.4246717083483697E-2</v>
       </c>
       <c r="J13" s="10">
@@ -1503,25 +1633,29 @@
       <c r="M13" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="N13" s="32">
+      <c r="N13" s="31">
         <v>2.112089323611209E-2</v>
       </c>
       <c r="O13" s="10">
         <v>0.10081951072148471</v>
       </c>
-      <c r="P13" s="15" t="s">
+      <c r="P13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Q13" s="17" t="s">
+      <c r="Q13" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="R13" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="S13" s="46"/>
+    </row>
+    <row r="14" spans="2:19" s="5" customFormat="1" ht="13.8">
+      <c r="B14" s="16" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="2:17" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="16" t="s">
+      <c r="C14" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="D14" s="15">
         <v>32109801</v>
@@ -1532,13 +1666,13 @@
       <c r="F14" s="10">
         <v>9.736314842506001E-4</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="23">
         <v>7.9926369696735844E-8</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="26">
         <v>1.331366237189769E-3</v>
       </c>
-      <c r="I14" s="32">
+      <c r="I14" s="31">
         <v>0.70525150314325302</v>
       </c>
       <c r="J14" s="10">
@@ -1553,112 +1687,128 @@
       <c r="M14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N14" s="32">
+      <c r="N14" s="31">
         <v>8.0852971199328119E-2</v>
       </c>
       <c r="O14" s="10">
         <v>2.304958039284058E-3</v>
       </c>
-      <c r="P14" s="15" t="s">
+      <c r="P14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="17" t="s">
+      <c r="Q14" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="R14" s="15" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="15" spans="2:17" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="S14" s="17"/>
+    </row>
+    <row r="15" spans="2:19" s="5" customFormat="1" ht="13.8">
       <c r="B15" s="14"/>
       <c r="C15" s="9"/>
       <c r="D15" s="15"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="32"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="31"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="15"/>
-      <c r="N15" s="32"/>
+      <c r="N15" s="31"/>
       <c r="O15" s="10"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="17"/>
-    </row>
-    <row r="16" spans="2:17" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="P15" s="9"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="17"/>
+    </row>
+    <row r="16" spans="2:19" s="5" customFormat="1" ht="13.8">
       <c r="B16" s="14"/>
       <c r="C16" s="9"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="I16" s="39" t="s">
+      <c r="E16" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="55"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="O16" s="36"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="17"/>
-    </row>
-    <row r="17" spans="2:17" s="4" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="R16" s="63"/>
+      <c r="S16" s="17"/>
+    </row>
+    <row r="17" spans="2:20" s="4" customFormat="1" ht="13.8">
       <c r="B17" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>40</v>
+      <c r="H17" s="25" t="s">
+        <v>39</v>
       </c>
       <c r="I17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="N17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="O17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="P17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" s="5" customFormat="1" ht="13.8">
       <c r="B18" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="15"/>
@@ -1668,13 +1818,13 @@
       <c r="F18" s="10">
         <v>8.2176571477491169E-4</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="23">
         <v>4.9836022517845776E-6</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="26">
         <v>3.2385860662159289E-3</v>
       </c>
-      <c r="I18" s="32">
+      <c r="I18" s="31">
         <v>0.63027363337438924</v>
       </c>
       <c r="J18" s="10">
@@ -1689,22 +1839,26 @@
       <c r="M18" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="32">
+      <c r="N18" s="31">
         <v>2.5233846703729109E-3</v>
       </c>
       <c r="O18" s="10">
         <v>9.4918915103758883E-2</v>
       </c>
-      <c r="P18" s="15" t="s">
+      <c r="P18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Q18" s="17" t="s">
+      <c r="Q18" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="S18" s="29"/>
+    </row>
+    <row r="19" spans="2:20" s="5" customFormat="1" ht="13.8">
+      <c r="B19" s="18" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B19" s="18" t="s">
-        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="15"/>
@@ -1714,13 +1868,13 @@
       <c r="F19" s="10">
         <v>3.271559813455339E-3</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="23">
         <v>6.1323612195725019E-6</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="26">
         <v>3.2385860662159289E-3</v>
       </c>
-      <c r="I19" s="32">
+      <c r="I19" s="31">
         <v>0.52279895758856409</v>
       </c>
       <c r="J19" s="10">
@@ -1735,22 +1889,28 @@
       <c r="M19" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N19" s="32">
+      <c r="N19" s="31">
         <v>4.8370254164042106E-3</v>
       </c>
       <c r="O19" s="10">
         <v>0.26413376272667921</v>
       </c>
-      <c r="P19" s="15" t="s">
+      <c r="P19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Q19" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="Q19" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="R19" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="S19" s="48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" s="5" customFormat="1" ht="13.8">
       <c r="B20" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="15"/>
@@ -1760,13 +1920,13 @@
       <c r="F20" s="10">
         <v>2.715083056798822E-2</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="23">
         <v>6.4642436451415736E-6</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H20" s="26">
         <v>3.2385860662159289E-3</v>
       </c>
-      <c r="I20" s="32">
+      <c r="I20" s="31">
         <v>0.53988542671730855</v>
       </c>
       <c r="J20" s="10">
@@ -1781,22 +1941,28 @@
       <c r="M20" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="32">
+      <c r="N20" s="31">
         <v>0.28759435013562379</v>
       </c>
       <c r="O20" s="10">
         <v>4.5210422771819213E-2</v>
       </c>
-      <c r="P20" s="15" t="s">
+      <c r="P20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Q20" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="Q20" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="S20" s="48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" s="5" customFormat="1" ht="13.8">
       <c r="B21" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="15"/>
@@ -1806,13 +1972,13 @@
       <c r="F21" s="10">
         <v>6.1050781843488078E-3</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="23">
         <v>2.2892644490756421E-5</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H21" s="26">
         <v>1.003556302863535E-2</v>
       </c>
-      <c r="I21" s="32">
+      <c r="I21" s="31">
         <v>0.48299114911508939</v>
       </c>
       <c r="J21" s="10">
@@ -1827,22 +1993,28 @@
       <c r="M21" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="32">
+      <c r="N21" s="31">
         <v>0.31120616123001149</v>
       </c>
       <c r="O21" s="10">
         <v>6.0247823480002556E-3</v>
       </c>
-      <c r="P21" s="15" t="s">
+      <c r="P21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Q21" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="Q21" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="R21" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="S21" s="48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" s="5" customFormat="1" ht="13.8">
       <c r="B22" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="15"/>
@@ -1852,13 +2024,13 @@
       <c r="F22" s="10">
         <v>1.348282090964853E-3</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="23">
         <v>3.1529774248664763E-5</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="26">
         <v>1.22861020322297E-2</v>
       </c>
-      <c r="I22" s="32">
+      <c r="I22" s="31">
         <v>0.42629105392952932</v>
       </c>
       <c r="J22" s="10">
@@ -1873,68 +2045,80 @@
       <c r="M22" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N22" s="32">
+      <c r="N22" s="31">
         <v>3.9694615079078283E-3</v>
       </c>
       <c r="O22" s="10">
         <v>0.1060918342939616</v>
       </c>
-      <c r="P22" s="15" t="s">
+      <c r="P22" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" s="48" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B23" s="49" t="s">
+      <c r="Q22" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="R22" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="S22" s="48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" s="41" customFormat="1" ht="13.8">
+      <c r="B23" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="43"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36">
+        <v>2.77524080598263E-6</v>
+      </c>
+      <c r="F23" s="36">
+        <v>3.5006785021875618E-2</v>
+      </c>
+      <c r="G23" s="37">
+        <v>8.8433973142311523E-5</v>
+      </c>
+      <c r="H23" s="38">
+        <v>2.2152710272149038E-2</v>
+      </c>
+      <c r="I23" s="39">
+        <v>0.32297369065300341</v>
+      </c>
+      <c r="J23" s="36">
+        <v>1.7367514943957139E-2</v>
+      </c>
+      <c r="K23" s="36">
+        <v>3.9452345071036843E-3</v>
+      </c>
+      <c r="L23" s="36">
+        <v>4.2797911408854316E-3</v>
+      </c>
+      <c r="M23" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N23" s="39">
+        <v>5.959412376742089E-2</v>
+      </c>
+      <c r="O23" s="36">
+        <v>0.32184484405899988</v>
+      </c>
+      <c r="P23" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="43">
-        <v>2.77524080598263E-6</v>
-      </c>
-      <c r="F23" s="43">
-        <v>3.5006785021875618E-2</v>
-      </c>
-      <c r="G23" s="44">
-        <v>8.8433973142311523E-5</v>
-      </c>
-      <c r="H23" s="45">
-        <v>2.2152710272149038E-2</v>
-      </c>
-      <c r="I23" s="46">
-        <v>0.32297369065300341</v>
-      </c>
-      <c r="J23" s="43">
-        <v>1.7367514943957139E-2</v>
-      </c>
-      <c r="K23" s="43">
-        <v>3.9452345071036843E-3</v>
-      </c>
-      <c r="L23" s="43">
-        <v>4.2797911408854316E-3</v>
-      </c>
-      <c r="M23" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="N23" s="46">
-        <v>5.959412376742089E-2</v>
-      </c>
-      <c r="O23" s="43">
-        <v>0.32184484405899988</v>
-      </c>
-      <c r="P23" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="47" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="R23" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="S23" s="47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" s="5" customFormat="1">
       <c r="B24" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="15"/>
@@ -1944,13 +2128,13 @@
       <c r="F24" s="10">
         <v>3.6663614761088308E-2</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="23">
         <v>1.2325022177185911E-4</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="26">
         <v>2.5425795750230001E-2</v>
       </c>
-      <c r="I24" s="32">
+      <c r="I24" s="31">
         <v>0.37335180891190473</v>
       </c>
       <c r="J24" s="10">
@@ -1965,68 +2149,77 @@
       <c r="M24" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="N24" s="32">
+      <c r="N24" s="31">
         <v>1.0090026658200749E-2</v>
       </c>
       <c r="O24" s="10">
         <v>0.53240978753355306</v>
       </c>
-      <c r="P24" s="15" t="s">
+      <c r="P24" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Q24" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" s="48" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B25" s="49" t="s">
+      <c r="Q24" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="S24" s="50"/>
+      <c r="T24" s="44"/>
+    </row>
+    <row r="25" spans="2:20" s="41" customFormat="1" ht="13.8">
+      <c r="B25" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="43"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36">
+        <v>9.9941343603902995E-7</v>
+      </c>
+      <c r="F25" s="36">
+        <v>3.517437078532993E-2</v>
+      </c>
+      <c r="G25" s="37">
+        <v>1.5490607745252471E-4</v>
+      </c>
+      <c r="H25" s="38">
+        <v>2.7051451579447699E-2</v>
+      </c>
+      <c r="I25" s="39">
+        <v>0.86164386892235834</v>
+      </c>
+      <c r="J25" s="36">
+        <v>5.3084475932578773E-4</v>
+      </c>
+      <c r="K25" s="36">
+        <v>1.9332140303201879E-3</v>
+      </c>
+      <c r="L25" s="36">
+        <v>1.9048526290294628E-2</v>
+      </c>
+      <c r="M25" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25" s="39">
+        <v>0.32847699578876571</v>
+      </c>
+      <c r="O25" s="36">
+        <v>1.9476007534565559E-2</v>
+      </c>
+      <c r="P25" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="43">
-        <v>9.9941343603902995E-7</v>
-      </c>
-      <c r="F25" s="43">
-        <v>3.517437078532993E-2</v>
-      </c>
-      <c r="G25" s="44">
-        <v>1.5490607745252471E-4</v>
-      </c>
-      <c r="H25" s="45">
-        <v>2.7051451579447699E-2</v>
-      </c>
-      <c r="I25" s="46">
-        <v>0.86164386892235834</v>
-      </c>
-      <c r="J25" s="43">
-        <v>5.3084475932578773E-4</v>
-      </c>
-      <c r="K25" s="43">
-        <v>1.9332140303201879E-3</v>
-      </c>
-      <c r="L25" s="43">
-        <v>1.9048526290294628E-2</v>
-      </c>
-      <c r="M25" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="N25" s="46">
-        <v>0.32847699578876571</v>
-      </c>
-      <c r="O25" s="43">
-        <v>1.9476007534565559E-2</v>
-      </c>
-      <c r="P25" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q25" s="47" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="R25" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="S25" s="40"/>
+    </row>
+    <row r="26" spans="2:20" s="5" customFormat="1" ht="13.8">
       <c r="B26" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="15"/>
@@ -2036,13 +2229,13 @@
       <c r="F26" s="10">
         <v>1.143819453532704E-2</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="23">
         <v>2.2659117392010309E-4</v>
       </c>
-      <c r="H26" s="27">
+      <c r="H26" s="26">
         <v>3.05636633437616E-2</v>
       </c>
-      <c r="I26" s="32">
+      <c r="I26" s="31">
         <v>0.49610577324378091</v>
       </c>
       <c r="J26" s="10">
@@ -2057,22 +2250,28 @@
       <c r="M26" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="N26" s="32">
+      <c r="N26" s="31">
         <v>5.741607885273706E-3</v>
       </c>
       <c r="O26" s="10">
         <v>0.52213957078998807</v>
       </c>
-      <c r="P26" s="15" t="s">
+      <c r="P26" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Q26" s="17" t="s">
+      <c r="Q26" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="R26" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="S26" s="48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" s="5" customFormat="1">
+      <c r="B27" s="19" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B27" s="19" t="s">
-        <v>33</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="3"/>
@@ -2082,13 +2281,13 @@
       <c r="F27" s="21">
         <v>1.7377466777046071E-2</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="24">
         <v>3.4213110344349619E-4</v>
       </c>
-      <c r="H27" s="29">
+      <c r="H27" s="28">
         <v>3.9378046467321293E-2</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="32">
         <v>2.33482165145475E-2</v>
       </c>
       <c r="J27" s="21">
@@ -2103,24 +2302,45 @@
       <c r="M27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N27" s="33">
+      <c r="N27" s="32">
         <v>9.7069269862807093E-3</v>
       </c>
       <c r="O27" s="21">
         <v>0.48258225188381099</v>
       </c>
-      <c r="P27" s="3" t="s">
+      <c r="P27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q27" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="75" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="Q27" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="S27" s="52"/>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="S28" s="51"/>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="S30" s="49"/>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="S31" s="50"/>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="S32" s="49"/>
+    </row>
+    <row r="33" spans="19:19">
+      <c r="S33" s="50"/>
+    </row>
+    <row r="75" spans="13:13">
       <c r="M75" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q16:R16"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="I3:M3"/>
@@ -2129,5 +2349,6 @@
     <mergeCell ref="N16:P16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>